--- a/bandai-nameco-high-school/高二上.xlsx
+++ b/bandai-nameco-high-school/高二上.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ofey Chan\Desktop\AA\bandai-nameco-high-school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212B5783-B916-45AC-9B7E-4DEB501CCE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A273DD3F-D2F9-4D8D-ACCA-6838B5CDB749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4370" yWindow="5010" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4370" yWindow="4970" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高二上" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>PC</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>组合强度</t>
+  </si>
+  <si>
+    <t>食堂</t>
+  </si>
+  <si>
+    <t>广播站</t>
+  </si>
+  <si>
+    <t>教学楼</t>
+  </si>
+  <si>
+    <t>宿舍</t>
+  </si>
+  <si>
+    <t>操场</t>
+  </si>
+  <si>
+    <t>格纳库</t>
   </si>
 </sst>
 </file>
@@ -485,13 +503,13 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
     <col min="13" max="14" width="10.81640625" customWidth="1"/>
     <col min="15" max="15" width="26.6328125" customWidth="1"/>
     <col min="16" max="16" width="53.54296875" customWidth="1"/>
@@ -514,10 +532,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -564,11 +582,11 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>98</v>
-      </c>
-      <c r="G2">
         <f>SUM(B2:E2)</f>
         <v>16</v>
+      </c>
+      <c r="G2">
+        <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -593,7 +611,7 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <f>SUM(N2,G2)</f>
+        <f>SUM(N2,F2)</f>
         <v>27</v>
       </c>
     </row>
@@ -614,11 +632,11 @@
         <v>4</v>
       </c>
       <c r="F3">
+        <f>SUM(B3:E3)</f>
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>76</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G7" si="0">SUM(B3:E3)</f>
-        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>18</v>
@@ -636,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N7" si="1">SUM(J3:M3)</f>
+        <f t="shared" ref="N3:N7" si="0">SUM(J3:M3)</f>
         <v>13</v>
       </c>
       <c r="O3" t="s">
@@ -646,7 +664,7 @@
         <v>27</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="2">SUM(N3,G3)</f>
+        <f>SUM(N3,F3)</f>
         <v>28</v>
       </c>
     </row>
@@ -667,11 +685,11 @@
         <v>4</v>
       </c>
       <c r="F4">
+        <f>SUM(B4:E4)</f>
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>29</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
@@ -689,14 +707,14 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f>SUM(N4,F4)</f>
         <v>28</v>
       </c>
     </row>
@@ -717,11 +735,11 @@
         <v>3</v>
       </c>
       <c r="F5">
+        <f>SUM(B5:E5)</f>
+        <v>12</v>
+      </c>
+      <c r="G5">
         <v>23</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
@@ -739,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O5" t="s">
@@ -749,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f>SUM(N5,F5)</f>
         <v>32</v>
       </c>
     </row>
@@ -770,31 +788,31 @@
         <v>2</v>
       </c>
       <c r="F6">
+        <f>SUM(B6:E6)</f>
+        <v>11</v>
+      </c>
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="G6">
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
       <c r="O6" t="s">
         <v>26</v>
       </c>
@@ -802,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f>SUM(N6,F6)</f>
         <v>22</v>
       </c>
     </row>
@@ -822,12 +840,12 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <f>SUM(B7:E7)</f>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
@@ -845,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O7" t="s">
@@ -855,7 +873,7 @@
         <v>30</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f>SUM(N7,F7)</f>
         <v>27</v>
       </c>
     </row>
@@ -880,6 +898,24 @@
       </c>
       <c r="G15" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:18">

--- a/bandai-nameco-high-school/高二上.xlsx
+++ b/bandai-nameco-high-school/高二上.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ofey Chan\Desktop\AA\bandai-nameco-high-school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A273DD3F-D2F9-4D8D-ACCA-6838B5CDB749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE719B64-B21B-4289-8EF9-763CA7C5F116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4370" yWindow="4970" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <f>SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F7" si="0">SUM(B2:E2)</f>
         <v>16</v>
       </c>
       <c r="G2">
@@ -611,7 +611,7 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <f>SUM(N2,F2)</f>
+        <f t="shared" ref="R2:R7" si="1">SUM(N2,F2)</f>
         <v>27</v>
       </c>
     </row>
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G3">
@@ -654,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N7" si="0">SUM(J3:M3)</f>
+        <f t="shared" ref="N3:N7" si="2">SUM(J3:M3)</f>
         <v>13</v>
       </c>
       <c r="O3" t="s">
@@ -664,7 +664,7 @@
         <v>27</v>
       </c>
       <c r="R3">
-        <f>SUM(N3,F3)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G4">
@@ -707,14 +707,14 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
       <c r="R4">
-        <f>SUM(N4,F4)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G5">
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O5" t="s">
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="R5">
-        <f>SUM(N5,F5)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G6">
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O6" t="s">
@@ -820,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="R6">
-        <f>SUM(N6,F6)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G7" t="s">
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O7" t="s">
@@ -873,7 +873,7 @@
         <v>30</v>
       </c>
       <c r="R7">
-        <f>SUM(N7,F7)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>

--- a/bandai-nameco-high-school/高二上.xlsx
+++ b/bandai-nameco-high-school/高二上.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ofey Chan\Desktop\AA\bandai-nameco-high-school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE719B64-B21B-4289-8EF9-763CA7C5F116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC04F8-3DBD-48B7-9B45-22675A9C0A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4370" yWindow="4970" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>PC</t>
   </si>
@@ -167,6 +167,27 @@
   </si>
   <si>
     <t>格纳库</t>
+  </si>
+  <si>
+    <t>阿尔弗雷德</t>
+  </si>
+  <si>
+    <t>巴尼扎古</t>
+  </si>
+  <si>
+    <t>全息投影浮游炮，弹数3</t>
+  </si>
+  <si>
+    <t>罗兰</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>自律行动，没有机师时机师补正从 -30 变为 0</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -503,7 +524,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -582,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F7" si="0">SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F9" si="0">SUM(B2:E2)</f>
         <v>16</v>
       </c>
       <c r="G2">
@@ -611,7 +632,7 @@
         <v>36</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R7" si="1">SUM(N2,F2)</f>
+        <f t="shared" ref="R2:R9" si="1">SUM(N2,F2)</f>
         <v>27</v>
       </c>
     </row>
@@ -654,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N7" si="2">SUM(J3:M3)</f>
+        <f t="shared" ref="N3:N9" si="2">SUM(J3:M3)</f>
         <v>13</v>
       </c>
       <c r="O3" t="s">
@@ -877,6 +898,100 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>23</v>
@@ -929,29 +1044,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/bandai-nameco-high-school/高二上.xlsx
+++ b/bandai-nameco-high-school/高二上.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ofey Chan\Desktop\AA\bandai-nameco-high-school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC04F8-3DBD-48B7-9B45-22675A9C0A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F02B75-512C-4F6C-9F06-BED312A75E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4370" yWindow="4970" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="5570" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高二上" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>PC</t>
   </si>
@@ -188,6 +188,45 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>改2</t>
+  </si>
+  <si>
+    <t>射击+1</t>
+  </si>
+  <si>
+    <t>[dice]d100[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d90+10[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d80+20[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d70+30[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d60+40[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d90[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d80[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d70[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d60[/dice]</t>
+  </si>
+  <si>
+    <t>[dice]d10[/dice]</t>
+  </si>
+  <si>
+    <t>露娜玛丽亚</t>
   </si>
 </sst>
 </file>
@@ -521,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
     <col min="6" max="6" width="9.08984375" customWidth="1"/>
     <col min="13" max="14" width="10.81640625" customWidth="1"/>
     <col min="15" max="15" width="26.6328125" customWidth="1"/>
@@ -582,6 +621,9 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
@@ -603,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="0">SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F10" si="0">SUM(B2:E2)</f>
         <v>16</v>
       </c>
       <c r="G2">
@@ -716,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -729,14 +771,17 @@
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" t="s">
         <v>33</v>
       </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -992,6 +1037,27 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>23</v>
@@ -1076,6 +1142,56 @@
       </c>
       <c r="G21" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
